--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0701</v>
+        <v>0.092</v>
       </c>
       <c r="E2">
-        <v>0.136</v>
+        <v>0.0837</v>
       </c>
       <c r="F2">
-        <v>0.0373</v>
+        <v>0.0356</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>45.9</v>
+        <v>46.5</v>
       </c>
       <c r="L2">
-        <v>0.4191780821917808</v>
+        <v>0.3496240601503759</v>
       </c>
       <c r="M2">
-        <v>28.2</v>
+        <v>29.8</v>
       </c>
       <c r="N2">
-        <v>0.03915579005831713</v>
+        <v>0.04275466284074605</v>
       </c>
       <c r="O2">
-        <v>0.6143790849673203</v>
+        <v>0.6408602150537634</v>
       </c>
       <c r="P2">
-        <v>28.2</v>
+        <v>29.8</v>
       </c>
       <c r="Q2">
-        <v>0.03915579005831713</v>
+        <v>0.04275466284074605</v>
       </c>
       <c r="R2">
-        <v>0.6143790849673203</v>
+        <v>0.6408602150537634</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,55 +642,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>30.4</v>
+        <v>91.5</v>
       </c>
       <c r="V2">
-        <v>0.04221049708414329</v>
+        <v>0.1312769010043042</v>
       </c>
       <c r="W2">
-        <v>0.102</v>
+        <v>0.1025132275132275</v>
       </c>
       <c r="X2">
-        <v>0.0450816980161777</v>
+        <v>0.05161894062365116</v>
       </c>
       <c r="Y2">
-        <v>0.05691830198382229</v>
+        <v>0.05089428688957635</v>
       </c>
       <c r="Z2">
-        <v>0.1084695393759287</v>
+        <v>0.1218841642228739</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03891181867700853</v>
+        <v>0.03093211379054739</v>
       </c>
       <c r="AC2">
-        <v>-0.03891181867700853</v>
+        <v>-0.03093211379054739</v>
       </c>
       <c r="AD2">
-        <v>238.8</v>
+        <v>842.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>238.8</v>
+        <v>842.8</v>
       </c>
       <c r="AG2">
-        <v>208.4</v>
+        <v>751.3</v>
       </c>
       <c r="AH2">
-        <v>0.2490093847758081</v>
+        <v>0.5473438108845304</v>
       </c>
       <c r="AI2">
-        <v>0.3708650411554589</v>
+        <v>0.6509616127288176</v>
       </c>
       <c r="AJ2">
-        <v>0.2244238638811114</v>
+        <v>0.5187461161361596</v>
       </c>
       <c r="AK2">
-        <v>0.3396903015484923</v>
+        <v>0.6244182180851064</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0701</v>
+        <v>0.092</v>
       </c>
       <c r="E3">
-        <v>0.136</v>
+        <v>0.0837</v>
       </c>
       <c r="F3">
-        <v>0.0373</v>
+        <v>0.0356</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>45.9</v>
+        <v>46.5</v>
       </c>
       <c r="L3">
-        <v>0.4191780821917808</v>
+        <v>0.3496240601503759</v>
       </c>
       <c r="M3">
-        <v>28.2</v>
+        <v>29.8</v>
       </c>
       <c r="N3">
-        <v>0.03915579005831713</v>
+        <v>0.04275466284074605</v>
       </c>
       <c r="O3">
-        <v>0.6143790849673203</v>
+        <v>0.6408602150537634</v>
       </c>
       <c r="P3">
-        <v>28.2</v>
+        <v>29.8</v>
       </c>
       <c r="Q3">
-        <v>0.03915579005831713</v>
+        <v>0.04275466284074605</v>
       </c>
       <c r="R3">
-        <v>0.6143790849673203</v>
+        <v>0.6408602150537634</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>30.4</v>
+        <v>91.5</v>
       </c>
       <c r="V3">
-        <v>0.04221049708414329</v>
+        <v>0.1312769010043042</v>
       </c>
       <c r="W3">
-        <v>0.102</v>
+        <v>0.1025132275132275</v>
       </c>
       <c r="X3">
-        <v>0.0450816980161777</v>
+        <v>0.05161894062365116</v>
       </c>
       <c r="Y3">
-        <v>0.05691830198382229</v>
+        <v>0.05089428688957635</v>
       </c>
       <c r="Z3">
-        <v>0.1084695393759287</v>
+        <v>0.1218841642228739</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03891181867700853</v>
+        <v>0.03093211379054739</v>
       </c>
       <c r="AC3">
-        <v>-0.03891181867700853</v>
+        <v>-0.03093211379054739</v>
       </c>
       <c r="AD3">
-        <v>238.8</v>
+        <v>842.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>238.8</v>
+        <v>842.8</v>
       </c>
       <c r="AG3">
-        <v>208.4</v>
+        <v>751.3</v>
       </c>
       <c r="AH3">
-        <v>0.2490093847758081</v>
+        <v>0.5473438108845304</v>
       </c>
       <c r="AI3">
-        <v>0.3708650411554589</v>
+        <v>0.6509616127288176</v>
       </c>
       <c r="AJ3">
-        <v>0.2244238638811114</v>
+        <v>0.5187461161361596</v>
       </c>
       <c r="AK3">
-        <v>0.3396903015484923</v>
+        <v>0.6244182180851064</v>
       </c>
       <c r="AL3">
         <v>0</v>
